--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,26 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>開發環境問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開發環境編譯程式錯誤問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVS Server連線問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workshop課程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作手冊製作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建置於Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +198,6 @@
   </si>
   <si>
     <t>網頁與內容製作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Processing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,10 +217,6 @@
   <si>
     <t>(璽芳提出)
 Berkeley已修正此問題，等Berkeley發佈新版本修正，系統Update後就不會有此問題。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已上developer group發問</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,18 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改後上線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後續加入老師CV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已請祖強確認操作指南並修訂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Car Graph的圖形沒顯示出來</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,7 +264,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可用FTP和本機端Wincvs或Git替代</t>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新消息區加入課程設計介紹、文章刊載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project library匯入入中文地科網站</t>
+  </si>
+  <si>
+    <t>程式功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發環境問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁面中文化修改與上傳更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workshop課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作手冊製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發環境問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發環境編譯程式錯誤問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解決</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式版本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVS Server連線問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Git代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group網頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改後上線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後續加入老師CV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>JNLP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檔上傳區與相關路徑設定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>申請帳號、驗證碼、連線與上傳程式碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>網址修正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>twise.nknu.edu.tw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自動轉頁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料庫儲存中文亂碼問題解決</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建置完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、更新研究成果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學習環境、教師工具、操作指南、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WISE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>優勢 頁面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行動中的WISE、研究與科技 頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁面圖片與按鈕處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text/HTML page新增Hints存檔功能失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(柏雅提出)
+使用"Edit Hints"按鈕輸入文字(無論中英) 按save hints
+重新開啟後, 框內文字仍顯示預設的"new hint"(存檔功能失效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(璽芳提出)
+Challenge Question與Match &amp; Sequence 這兩個功能無法編輯，即進入編輯頁面無法做任何編修，且無法關閉頁面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Challenge Question與Match &amp; Sequence無法編修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含首頁動畫圖片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,12 +597,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF323D4F"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="新細明體"/>
@@ -366,6 +611,58 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,26 +746,62 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,16 +1097,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -977,224 +1310,437 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>40858</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
         <v>40861</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="18">
+        <v>40865</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="18">
+        <v>40865</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="18">
+        <v>40865</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="18">
+        <v>40865</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="49.5">
+      <c r="A19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="C19" s="18">
+        <v>40868</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="66">
+      <c r="A20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="18">
+        <v>40868</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="17">
-        <v>40865</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="17">
-        <v>40865</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="17">
-        <v>40865</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="17">
-        <v>40865</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="49.5">
-      <c r="A19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="17">
-        <v>40868</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="66">
-      <c r="A20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="17">
-        <v>40868</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="21" spans="1:5" ht="49.5">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="18">
         <v>40868</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="49.5">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="18">
         <v>40868</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" s="20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="49.5">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="18">
         <v>40868</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="E23" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="66">
+      <c r="A24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="18">
+        <v>40868</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33">
+      <c r="A25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="18">
+        <v>40868</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="66">
+      <c r="A26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="66">
-      <c r="A24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="C26" s="18">
+        <v>40868</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18">
+      <c r="A27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="23">
+        <v>40869</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="17">
-        <v>40868</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="B28" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="23">
+        <v>40870</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="23">
+        <v>40870</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="17">
-        <v>40868</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="66">
-      <c r="A26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="C30" s="23">
+        <v>40871</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="17">
-        <v>40868</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16" t="s">
+      <c r="C31" s="23">
+        <v>40871</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="14"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="18">
+      <c r="A32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="23">
+        <v>40871</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="18">
+      <c r="A33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="23">
+        <v>40872</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="18">
+      <c r="A34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="23">
+        <v>40872</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="23">
+        <v>40875</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="32">
+        <v>40877</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="49.5">
+      <c r="A37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="18">
+        <v>40878</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="66">
+      <c r="A38" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="18">
+        <v>40878</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="32">
+        <v>40882</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,18 +268,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Workshop課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作手冊製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發環境問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發環境編譯程式錯誤問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解決</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式版本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVS Server連線問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Git代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group網頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改後上線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後續加入老師CV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>申請帳號、驗證碼、連線與上傳程式碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>網站管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>網址修正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>twise.nknu.edu.tw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自動轉頁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>JNLP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檔上傳區與相關路徑設定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>最新消息區加入課程設計介紹、文章刊載</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Project library匯入入中文地科網站</t>
-  </si>
-  <si>
-    <t>程式功能</t>
+    <r>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料庫儲存中文亂碼問題解決</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,6 +416,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建置完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、更新研究成果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>網站中文化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,11 +465,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Workshop課程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作手冊製作</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學習環境、教師工具、操作指南、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WISE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>優勢 頁面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新為WISE4.4 Stable版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,42 +502,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>開發環境問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開發環境編譯程式錯誤問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解決</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程式版本控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVS Server連線問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用Git代替</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group網頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改後上線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後續加入老師CV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <t>(柏雅提出)
+改用Firefox就沒有出現此問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(璽芳提出)
+該課程此兩step毀損，新建課程step解決此問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統穩定度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Project library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>匯入入中文地科課程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Challenge Question與Match &amp; Sequence無法編修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text/HTML page新增Hints存檔功能失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Project library</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -351,16 +558,68 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>新增</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>JNLP</t>
+      <t>匯入入中文全球氣候變遷課程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>並重新檢視與設定Java環境以及相關設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authoring Tool中Open Project無法顯示中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生帳號註冊頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片影像處理、修改並更換上線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯出Group課程並備份；匯入Group課程到NTNU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師登入功能頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.行動中的WISE頁面
+2.研究與科技頁面
+3.首頁按鈕文字
+4.教師註冊頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NTNU</t>
     </r>
     <r>
       <rPr>
@@ -370,13 +629,16 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>檔上傳區與相關路徑設定</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Git</t>
+      <t>之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
     </r>
     <r>
       <rPr>
@@ -386,11 +648,17 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>申請帳號、驗證碼、連線與上傳程式碼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -399,16 +667,16 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>網址修正</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Trebuchet MS"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>twise.nknu.edu.tw</t>
+      <t>51</t>
     </r>
     <r>
       <rPr>
@@ -418,72 +686,17 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>自動轉頁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MySQL</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料庫儲存中文亂碼問題解決</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>建置完成</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>加入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>CV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、更新研究成果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t>52</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -492,7 +705,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>學習環境、教師工具、操作指南、</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -501,18 +714,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>WISE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>優勢 頁面</t>
-    </r>
+      <t>53</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.發現Port衝突的問題
+2.測試新建課程是否覆蓋舊課程
+3.解除相關Port的安全限制
+4.變更server.xml當中localhost設定
+5.發現記憶體溢位問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.監控測試中
+2.目前未發現有此情形
+3.安全等級與連接埠設定(新增8443、8005、8009)
+4.設定為twise.nknu.edu.tw
+5.設定tomcat memory size並詢問Hiroki</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,42 +739,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行動中的WISE、研究與科技 頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Processing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頁面圖片與按鈕處理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程式功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text/HTML page新增Hints存檔功能失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(柏雅提出)
-使用"Edit Hints"按鈕輸入文字(無論中英) 按save hints
-重新開啟後, 框內文字仍顯示預設的"new hint"(存檔功能失效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(璽芳提出)
-Challenge Question與Match &amp; Sequence 這兩個功能無法編輯，即進入編輯頁面無法做任何編修，且無法關閉頁面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Challenge Question與Match &amp; Sequence無法編修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含首頁動畫圖片</t>
+    <t>首頁英文字圖層刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫時刪除首頁地球科學專案以外項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案圖片與說明修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除教師註冊州欄位項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試中文帳號的建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳出訊息視窗中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁TELS字拿掉；Open source翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除學生註冊頁面"中間名"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authoring Tool選項中文化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +786,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,12 +849,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -663,6 +877,16 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -702,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,9 +994,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -787,20 +1008,44 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1337,68 +1582,68 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15" s="18">
         <v>40865</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" s="18">
         <v>40865</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C17" s="18">
         <v>40865</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C18" s="18">
         <v>40865</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="49.5">
@@ -1538,209 +1783,437 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="18">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="28">
+        <v>40869</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="28">
+        <v>40870</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="28">
+        <v>40870</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="28">
+        <v>40871</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="28">
+        <v>40871</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5" ht="18">
+      <c r="A32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="28">
+        <v>40871</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" ht="18">
+      <c r="A33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="28">
+        <v>40872</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="18">
+      <c r="A34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="23">
-        <v>40869</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" ht="18">
-      <c r="A28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="C34" s="28">
+        <v>40872</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="23">
-        <v>40870</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" ht="18">
-      <c r="A29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="23">
-        <v>40870</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="23">
-        <v>40871</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="23">
-        <v>40871</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="18">
-      <c r="A32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="B35" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="23">
-        <v>40871</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="C35" s="28">
+        <v>40875</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="23">
-        <v>40872</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5" ht="18">
-      <c r="A34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="22" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="22">
+        <v>40877</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="23">
-        <v>40872</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="23">
-        <v>40875</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="28" t="s">
+      <c r="C37" s="22">
+        <v>40878</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="17" t="s">
+      <c r="E37" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="82.5">
+      <c r="A38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33">
+      <c r="A39" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="35">
+        <v>40878</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="33">
+      <c r="A40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="35">
+        <v>40878</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="32">
-        <v>40877</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="49.5">
-      <c r="A37" s="17" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="66">
+      <c r="A41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="22">
+        <v>40879</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="22">
+        <v>40882</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="22">
+        <v>40883</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="18">
-        <v>40878</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="66">
-      <c r="A38" s="17" t="s">
+      <c r="E43" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="22">
+        <v>40883</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="22">
+        <v>40886</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="18">
-        <v>40878</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="32">
-        <v>40882</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>90</v>
-      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="22">
+        <v>40886</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="131">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,28 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新為WISE4.4 Stable版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(柏雅提出)
-改用Firefox就沒有出現此問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(璽芳提出)
-該課程此兩step毀損，新建課程step解決此問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統穩定度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Project library</t>
     </r>
@@ -535,134 +513,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網站更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Challenge Question與Match &amp; Sequence無法編修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text/HTML page新增Hints存檔功能失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Project library</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生帳號註冊頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫時刪除首頁地球科學專案以外項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試中文帳號的建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authoring Tool選項中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯出Group課程並備份；匯入Group課程到NTNU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NTNU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>匯入入中文全球氣候變遷課程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>並重新檢視與設定Java環境以及相關設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站中文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authoring Tool中Open Project無法顯示中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生帳號註冊頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站圖片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圖片影像處理、修改並更換上線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匯出Group課程並備份；匯入Group課程到NTNU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教師登入功能頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.行動中的WISE頁面
-2.研究與科技頁面
-3.首頁按鈕文字
-4.教師註冊頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NTNU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+      <t>之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -672,16 +619,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -691,31 +636,27 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>53</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新為WISE4.4 Stable版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>並重新檢視與設定Java環境以及相關設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統穩定度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -727,6 +668,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.監控測試中
 2.目前未發現有此情形
 3.安全等級與連接埠設定(新增8443、8005、8009)
@@ -735,47 +680,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Challenge Question與Match &amp; Sequence無法編修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(璽芳提出)
+該課程此兩step毀損，新建課程step解決此問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text/HTML page新增Hints存檔功能失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(柏雅提出)
+改用Firefox就沒有出現此問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>網站中文化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首頁英文字圖層刪除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫時刪除首頁地球科學專案以外項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案圖片與說明修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除教師註冊州欄位項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試中文帳號的建立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳出訊息視窗中文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首頁TELS字拿掉；Open source翻譯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除學生註冊頁面"中間名"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authoring Tool選項中文化</t>
+    <t>頁面中文化修改與上傳更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.行動中的WISE頁面
+2.研究與科技頁面
+3.首頁按鈕文字
+4.教師註冊頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Project library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>匯入入中文全球氣候變遷課程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除教師註冊頁面「州」欄位項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正學生註冊頁面「中間名」為「姓名」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在密碼提示問題中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且可輸入中文專案名稱建立專案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project detail頁面</t>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authoring Tool中Open Project無法顯示中文問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師登入功能主頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師登入未有Run課程說明頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新註冊資訊頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁/我的帳號/更新註冊資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁圖片影像處理、修改並更換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Library對應圖示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿掉陰影圖層及英文字、置換本國圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙圖→正確圖示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁TELS字拿掉、Open source翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁/Project/詳細說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽WISE專題頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新我的帳號頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更我的密碼頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課堂評分管理頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改前後端程式，後端程式需編譯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +830,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -845,19 +889,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -926,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,41 +1034,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1045,7 +1061,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1786,434 +1808,527 @@
       <c r="A27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="26">
         <v>40869</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="18">
       <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="26">
         <v>40870</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="18">
       <c r="A29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="26">
         <v>40870</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="26">
         <v>40871</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="28">
+      <c r="B31" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="26">
         <v>40871</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" ht="18">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <v>40871</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" ht="18">
       <c r="A33" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="26">
         <v>40872</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" ht="18">
       <c r="A34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="26">
         <v>40872</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="26">
         <v>40875</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="26">
+        <v>40877</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="26">
+        <v>40878</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="82.5">
+      <c r="A38" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="22">
-        <v>40877</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="E38" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="38" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="33">
+      <c r="A39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="18">
+        <v>40878</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="33">
+      <c r="A40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="18">
+        <v>40878</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="66">
+      <c r="A41" s="17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="22">
-        <v>40878</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="82.5">
-      <c r="A38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="37" t="s">
+      <c r="B41" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="33" t="s">
+      <c r="C41" s="26">
+        <v>40879</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
-      <c r="A39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="35">
-        <v>40878</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="33">
-      <c r="A40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="35">
-        <v>40878</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="66">
-      <c r="A41" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="22">
-        <v>40879</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="22">
+      <c r="A42" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="26">
         <v>40882</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="23"/>
+      <c r="D42" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C43" s="22">
         <v>40883</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>93</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="22">
         <v>40883</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="C45" s="22">
-        <v>40886</v>
+        <v>40883</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="C46" s="22">
-        <v>40886</v>
+        <v>40883</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="22">
+        <v>40884</v>
+      </c>
       <c r="D47" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="22">
+        <v>40884</v>
+      </c>
       <c r="D48" s="23" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="22">
+        <v>40885</v>
+      </c>
       <c r="D49" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="22">
+        <v>40885</v>
+      </c>
       <c r="D50" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="22">
+        <v>40885</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="22">
+        <v>40886</v>
+      </c>
       <c r="D52" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="22">
+        <v>40886</v>
+      </c>
       <c r="D53" s="23" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="22">
+        <v>40886</v>
+      </c>
       <c r="D54" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="22">
+        <v>40889</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,14 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Processing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站中文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學生帳號註冊頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,19 +517,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網站中文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>網站功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暫時刪除首頁地球科學專案以外項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試中文帳號的建立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -751,75 +735,195 @@
     <t>project detail頁面</t>
   </si>
   <si>
+    <t>Authoring Tool中Open Project無法顯示中文問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師登入功能主頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師登入未有Run課程說明頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新註冊資訊頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁/我的帳號/更新註冊資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁圖片影像處理、修改並更換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Library對應圖示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿掉陰影圖層及英文字、置換本國圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙圖→正確圖示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁TELS字拿掉、Open source翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁/Project/詳細說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽WISE專題頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新我的帳號頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更我的密碼頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課堂評分管理頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改前後端程式，後端程式需編譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Authoring Tool中Open Project無法顯示中文問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教師登入功能主頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教師登入未有Run課程說明頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新註冊資訊頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首頁/我的帳號/更新註冊資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首頁圖片影像處理、修改並更換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Library對應圖示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿掉陰影圖層及英文字、置換本國圖片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青蛙圖→正確圖示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首頁TELS字拿掉、Open source翻譯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首頁/Project/詳細說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀏覽WISE專題頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新我的帳號頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變更我的密碼頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課堂評分管理頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改前後端程式，後端程式需編譯</t>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Brainstorm Discussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Car Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Challenge Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Data Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Explanation Builder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Fill In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Graph/Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Idea Basket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Match &amp; Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Molecular Workbench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Multiple Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：My System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：My System2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Open Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Outside Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Questionnaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Step：Reflection Note </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Seasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Surge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Text/HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦相容性確認頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡WISE功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日系統報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動發信到管理者信箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +934,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,6 +1023,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -957,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,9 +1134,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1064,10 +1194,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1603,732 +1754,1086 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>40865</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>40865</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>40865</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>40865</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="49.5">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>40868</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="66">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>40868</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>40868</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="49.5">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>40868</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="49.5">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>40868</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="66">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>40868</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>40868</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="66">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>40868</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>40869</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="25"/>
+      <c r="D27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" ht="18">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>40870</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="25"/>
+      <c r="D28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" ht="18">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>40870</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="25"/>
+      <c r="D29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>40871</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="25"/>
+      <c r="D30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>40871</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="25"/>
+      <c r="D31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="18">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>40871</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="25"/>
+      <c r="D32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>40872</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="25"/>
+      <c r="D33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" ht="18">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>40872</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="25"/>
+      <c r="D34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>40875</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="30" t="s">
+      <c r="D35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="25">
+        <v>40877</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="C37" s="25">
+        <v>40878</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="26">
-        <v>40877</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="30" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="82.5">
+      <c r="A38" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="17" t="s">
+      <c r="B38" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="26">
+      <c r="E38" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33">
+      <c r="A39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="17">
         <v>40878</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="82.5">
-      <c r="A38" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="D39" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="17" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="33">
+      <c r="A40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="C40" s="17">
+        <v>40878</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
-      <c r="A39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="16" t="s">
+    <row r="41" spans="1:5" ht="66">
+      <c r="A41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="18">
-        <v>40878</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="B41" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="33">
-      <c r="A40" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="16" t="s">
+      <c r="C41" s="25">
+        <v>40879</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="18">
-        <v>40878</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="19" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="66">
-      <c r="A41" s="17" t="s">
+      <c r="B42" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="C42" s="25">
+        <v>40882</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" s="35" customFormat="1">
+      <c r="A43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="17">
+        <v>40883</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" s="35" customFormat="1">
+      <c r="A44" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="17">
+        <v>40883</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" s="35" customFormat="1">
+      <c r="A45" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="17">
+        <v>40883</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="35" customFormat="1">
+      <c r="A46" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="17">
+        <v>40883</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" s="35" customFormat="1">
+      <c r="A47" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="17">
+        <v>40884</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="37"/>
+    </row>
+    <row r="48" spans="1:5" s="35" customFormat="1">
+      <c r="A48" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="17">
+        <v>40884</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" s="35" customFormat="1">
+      <c r="A49" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="26">
-        <v>40879</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="29" t="s">
+      <c r="C49" s="17">
+        <v>40885</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="35" customFormat="1">
+      <c r="A50" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="17">
+        <v>40885</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="35" customFormat="1">
+      <c r="A51" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="17">
+        <v>40885</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="26">
-        <v>40882</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="25"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="15" t="s">
+    </row>
+    <row r="52" spans="1:5" s="35" customFormat="1">
+      <c r="A52" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B52" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="17">
+        <v>40886</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="35" customFormat="1">
+      <c r="A53" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="17">
+        <v>40886</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" s="35" customFormat="1">
+      <c r="A54" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="22">
-        <v>40883</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="22">
-        <v>40883</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="22">
-        <v>40883</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="31" t="s">
+      <c r="B54" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="17">
+        <v>40886</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="35" customFormat="1">
+      <c r="A55" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="17">
+        <v>40889</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="21">
+        <v>40893</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="21">
+        <v>40893</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="21">
+        <v>40893</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="21">
+        <v>40896</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="21">
+        <v>40896</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="22">
-        <v>40883</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="22">
-        <v>40884</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="35"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="22">
-        <v>40884</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="22">
-        <v>40885</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="C61" s="21">
+        <v>40896</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="40">
+        <v>40897</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="40">
+        <v>40897</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="39" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="22">
-        <v>40885</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="22">
-        <v>40885</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="22">
-        <v>40886</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="22">
-        <v>40886</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="22">
-        <v>40886</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="22">
-        <v>40889</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="31" t="s">
+      <c r="C64" s="40">
+        <v>40898</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="1"/>
+      <c r="B65" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="40">
+        <v>40898</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="40">
+        <v>40899</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="40">
+        <v>40899</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="40">
+        <v>40900</v>
+      </c>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="40">
+        <v>40900</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="40">
+        <v>40903</v>
+      </c>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="40">
+        <v>40903</v>
+      </c>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="40">
+        <v>40904</v>
+      </c>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="40">
+        <v>40904</v>
+      </c>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="40">
+        <v>40904</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="40">
+        <v>40905</v>
+      </c>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="40">
+        <v>40905</v>
+      </c>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="40">
+        <v>40906</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="40">
+        <v>40906</v>
+      </c>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="40">
+        <v>40907</v>
+      </c>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="40">
+        <v>40907</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="40">
+        <v>40545</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="40">
+        <v>40545</v>
+      </c>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="40">
+        <v>40546</v>
+      </c>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="40">
+        <v>40546</v>
+      </c>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="40">
+        <v>40546</v>
+      </c>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="42">
+        <v>40547</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,10 +779,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>更改前後端程式，後端程式需編譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Explanation Builder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Fill In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Graph/Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Match &amp; Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Molecular Workbench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Multiple Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：My System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：My System2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Open Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Outside Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Questionnaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Step：Reflection Note </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Seasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Surge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Text/HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦相容性確認頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動發信到管理者信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>瀏覽WISE專題頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡WISE功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日系統報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>更新我的帳號頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,7 +907,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更改前後端程式，後端程式需編譯</t>
+    <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,127 +915,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Step：Brainstorm Discussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Car Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Challenge Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Data Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網站中文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Brainstorm Discussion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Car Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Challenge Question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Data Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Draw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Explanation Builder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Fill In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Flash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Graph/Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Step：Idea Basket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Step：Match &amp; Sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Molecular Workbench</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Multiple Choice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：My System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：My System2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Open Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Outside Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Questionnaire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Step：Reflection Note </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Seasons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Surge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Text/HTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦相容性確認頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡WISE功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日系統報告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自動發信到管理者信箱</t>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idea Basket是跨step功能仍在修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authoring Tool特殊功能表選單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複製客製化功能修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +966,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -968,14 +1000,6 @@
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -993,13 +1017,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1033,21 +1050,13 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1090,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,91 +1143,76 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1959,136 +1953,136 @@
       <c r="A27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="23">
         <v>40869</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="18">
       <c r="A28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="23">
         <v>40870</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="18">
       <c r="A29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="23">
         <v>40870</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="23">
         <v>40871</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="23">
         <v>40871</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" ht="18">
       <c r="A32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <v>40871</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="18">
       <c r="A33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="23">
         <v>40872</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="18">
       <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="23">
         <v>40872</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="23">
         <v>40875</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2096,16 +2090,16 @@
       <c r="A36" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="23">
         <v>40877</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2113,16 +2107,16 @@
       <c r="A37" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="23">
         <v>40878</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="28" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2130,14 +2124,14 @@
       <c r="A38" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="28" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2151,7 +2145,7 @@
       <c r="C39" s="17">
         <v>40878</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="18" t="s">
@@ -2168,7 +2162,7 @@
       <c r="C40" s="17">
         <v>40878</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="18" t="s">
@@ -2179,16 +2173,16 @@
       <c r="A41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="23">
         <v>40879</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="33" t="s">
+      <c r="D41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2196,18 +2190,18 @@
       <c r="A42" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="23">
         <v>40882</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:5" s="35" customFormat="1">
+      <c r="D42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" s="31" customFormat="1">
       <c r="A43" s="16" t="s">
         <v>76</v>
       </c>
@@ -2222,11 +2216,11 @@
       </c>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" s="35" customFormat="1">
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="A44" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="17">
@@ -2237,11 +2231,11 @@
       </c>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5" s="35" customFormat="1">
+    <row r="45" spans="1:5" s="31" customFormat="1">
       <c r="A45" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="17">
@@ -2254,11 +2248,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="35" customFormat="1">
+    <row r="46" spans="1:5" s="31" customFormat="1">
       <c r="A46" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="17">
@@ -2269,7 +2263,7 @@
       </c>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5" s="35" customFormat="1">
+    <row r="47" spans="1:5" s="31" customFormat="1">
       <c r="A47" s="16" t="s">
         <v>76</v>
       </c>
@@ -2282,13 +2276,13 @@
       <c r="D47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="37"/>
-    </row>
-    <row r="48" spans="1:5" s="35" customFormat="1">
+      <c r="E47" s="33"/>
+    </row>
+    <row r="48" spans="1:5" s="31" customFormat="1">
       <c r="A48" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="17">
@@ -2299,11 +2293,11 @@
       </c>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" s="35" customFormat="1">
+    <row r="49" spans="1:5" s="31" customFormat="1">
       <c r="A49" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="17">
@@ -2313,14 +2307,14 @@
         <v>14</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="35" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="31" customFormat="1">
       <c r="A50" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="17">
@@ -2333,7 +2327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="35" customFormat="1">
+    <row r="51" spans="1:5" s="31" customFormat="1">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="35" customFormat="1">
+    <row r="52" spans="1:5" s="31" customFormat="1">
       <c r="A52" s="16" t="s">
         <v>81</v>
       </c>
@@ -2367,7 +2361,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="35" customFormat="1">
+    <row r="53" spans="1:5" s="31" customFormat="1">
       <c r="A53" s="16" t="s">
         <v>76</v>
       </c>
@@ -2382,11 +2376,11 @@
       </c>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" s="35" customFormat="1">
+    <row r="54" spans="1:5" s="31" customFormat="1">
       <c r="A54" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="17">
@@ -2399,7 +2393,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="35" customFormat="1">
+    <row r="55" spans="1:5" s="31" customFormat="1">
       <c r="A55" s="16" t="s">
         <v>76</v>
       </c>
@@ -2417,423 +2411,505 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="21">
+      <c r="A56" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="17">
         <v>40893</v>
       </c>
-      <c r="D56" s="22" t="s">
-        <v>14</v>
+      <c r="D56" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="17">
+        <v>40893</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="17">
+        <v>40893</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="17">
+        <v>40896</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="17">
+        <v>40896</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="17">
+        <v>40896</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="36">
+        <v>40897</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="36">
+        <v>40897</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="36">
+        <v>40897</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="34"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="36">
+        <v>40898</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="34"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="36">
+        <v>40898</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="34"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="36">
+        <v>40899</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="34"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="36">
+        <v>40899</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="34"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="36">
+        <v>40900</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="37"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="36">
+        <v>40900</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="34"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="21">
-        <v>40893</v>
-      </c>
-      <c r="D57" s="22" t="s">
+      <c r="C71" s="36">
+        <v>40903</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="37"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="36">
+        <v>40903</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="37"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="36">
+        <v>40903</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="21">
-        <v>40893</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="21">
-        <v>40896</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="21">
-        <v>40896</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="21">
-        <v>40896</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="38" t="s">
+      <c r="C74" s="36">
+        <v>40904</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="34"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="C75" s="36">
+        <v>40904</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="34"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="40">
-        <v>40897</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="41" t="s">
+      <c r="C76" s="36">
+        <v>40904</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="37"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="40">
-        <v>40897</v>
-      </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="39" t="s">
+      <c r="C77" s="36">
+        <v>40905</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="37"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="40">
-        <v>40898</v>
-      </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="38" t="s">
+      <c r="C78" s="36">
+        <v>40905</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="34"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="40">
-        <v>40898</v>
-      </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="41" t="s">
+      <c r="C79" s="36">
+        <v>40906</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="37"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="40">
-        <v>40899</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="41" t="s">
+      <c r="C80" s="36">
+        <v>40906</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="37"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="40">
-        <v>40899</v>
-      </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="41" t="s">
+      <c r="C81" s="36">
+        <v>40907</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="37"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="40">
-        <v>40900</v>
-      </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="41" t="s">
+      <c r="C82" s="36">
+        <v>40907</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="37"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="40">
-        <v>40900</v>
-      </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="41" t="s">
+      <c r="C83" s="36">
+        <v>40545</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E83" s="34"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="40">
-        <v>40903</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="41" t="s">
+      <c r="C84" s="36">
+        <v>40545</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="34"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="40">
-        <v>40903</v>
-      </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="41" t="s">
+      <c r="C85" s="36">
+        <v>40546</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="37"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="40">
-        <v>40904</v>
-      </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="41" t="s">
+      <c r="C86" s="36">
+        <v>40546</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="37"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="40">
-        <v>40904</v>
-      </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="41" t="s">
+      <c r="C87" s="36">
+        <v>40546</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" s="37"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="40">
-        <v>40904</v>
-      </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="40">
-        <v>40905</v>
-      </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="40">
-        <v>40905</v>
-      </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="40">
-        <v>40906</v>
-      </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" s="40">
-        <v>40906</v>
-      </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="40">
-        <v>40907</v>
-      </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="40">
-        <v>40907</v>
-      </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="40">
-        <v>40545</v>
-      </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="40">
-        <v>40545</v>
-      </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B83" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="40">
-        <v>40546</v>
-      </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="40">
-        <v>40546</v>
-      </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="40">
-        <v>40546</v>
-      </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="42">
+      <c r="C88" s="36">
         <v>40547</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="D88" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="182">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,6 +783,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>網站中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Step：Draw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -907,55 +911,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Step：Brainstorm Discussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Car Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Challenge Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Data Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step：Idea Basket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Authoring Tool特殊功能表選單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複製客製化功能修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法中文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>網站功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Step：Brainstorm Discussion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Car Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Challenge Question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Data Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step：Idea Basket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idea Basket是跨step功能仍在修改中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authoring Tool特殊功能表選單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>複製客製化功能修正</t>
+    <t>上傳區容量修改為50MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允許上傳JNLP檔案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟專案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增專案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複製專案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳檔案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯資訊對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Previous Work頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增活動對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增步驟對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步驟類型描述頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標籤設定頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校技術人員頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authoring Tool編輯主頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊功能所有功能頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁圖片影像處理、修改並更換</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +1034,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1054,13 +1122,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1099,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,9 +1265,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1509,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2412,292 +2470,290 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="17">
         <v>40893</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" s="17">
         <v>40893</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58" s="17">
         <v>40893</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" s="17">
         <v>40896</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" s="17">
         <v>40896</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="17">
         <v>40896</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="17">
+        <v>40897</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="36">
+      <c r="C63" s="17">
         <v>40897</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="35" t="s">
+      <c r="D63" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C64" s="17">
         <v>40897</v>
       </c>
-      <c r="D63" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="34"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" s="37" t="s">
+      <c r="D64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="36">
-        <v>40897</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" s="34"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="35" t="s">
+      <c r="C65" s="17">
+        <v>40898</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C66" s="17">
         <v>40898</v>
       </c>
-      <c r="D65" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="34"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="36">
-        <v>40898</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" s="34"/>
+      <c r="D66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="37" t="s">
+      <c r="A67" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="36">
+      <c r="B67" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="17">
         <v>40899</v>
       </c>
-      <c r="D67" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="34"/>
+      <c r="D67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="15"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="36">
+      <c r="A68" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="17">
         <v>40899</v>
       </c>
-      <c r="D68" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E68" s="34"/>
+      <c r="D68" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="36">
+      <c r="A69" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="17">
         <v>40900</v>
       </c>
-      <c r="D69" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" s="37"/>
+      <c r="D69" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="36">
+      <c r="A70" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="17">
         <v>40900</v>
       </c>
-      <c r="D70" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E70" s="34"/>
+      <c r="D70" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="36">
+      <c r="A71" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="17">
         <v>40903</v>
       </c>
-      <c r="D71" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="37"/>
+      <c r="D71" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="36">
+      <c r="A72" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="17">
         <v>40903</v>
       </c>
-      <c r="D72" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="37"/>
+      <c r="D72" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="36">
-        <v>40903</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>161</v>
-      </c>
+      <c r="B73" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="35">
+        <v>40904</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="36"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="36">
+      <c r="B74" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="35">
         <v>40904</v>
       </c>
-      <c r="D74" s="37" t="s">
-        <v>160</v>
+      <c r="D74" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="E74" s="34"/>
     </row>
@@ -2705,14 +2761,14 @@
       <c r="A75" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="36">
+      <c r="B75" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="35">
         <v>40904</v>
       </c>
-      <c r="D75" s="37" t="s">
-        <v>160</v>
+      <c r="D75" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="E75" s="34"/>
     </row>
@@ -2720,44 +2776,44 @@
       <c r="A76" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="36">
+      <c r="B76" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="35">
         <v>40904</v>
       </c>
-      <c r="D76" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E76" s="37"/>
+      <c r="D76" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="36"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="36">
+      <c r="B77" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="35">
         <v>40905</v>
       </c>
-      <c r="D77" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="37"/>
+      <c r="D77" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="36"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="36">
+      <c r="B78" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="35">
         <v>40905</v>
       </c>
-      <c r="D78" s="37" t="s">
-        <v>93</v>
+      <c r="D78" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="E78" s="34"/>
     </row>
@@ -2765,151 +2821,391 @@
       <c r="A79" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79" s="36">
+      <c r="B79" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="35">
         <v>40906</v>
       </c>
-      <c r="D79" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E79" s="37"/>
+      <c r="D79" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="36"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="36">
+      <c r="B80" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="35">
         <v>40906</v>
       </c>
-      <c r="D80" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" s="37"/>
+      <c r="D80" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="36">
-        <v>40907</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E81" s="37"/>
+        <v>162</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="35">
+        <v>40906</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="36">
-        <v>40907</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E82" s="37"/>
+        <v>162</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="35">
+        <v>40906</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="36"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="36">
-        <v>40545</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="34"/>
+      <c r="B83" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="35">
+        <v>40907</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="36"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" s="36">
-        <v>40545</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" s="34"/>
+      <c r="B84" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="35">
+        <v>40907</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="36"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C85" s="36">
-        <v>40546</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" s="37"/>
+      <c r="B85" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="35">
+        <v>40545</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="36"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="36">
-        <v>40546</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" s="37"/>
+        <v>121</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="35">
+        <v>40545</v>
+      </c>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="36">
+      <c r="B87" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="35">
         <v>40546</v>
       </c>
-      <c r="D87" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" s="37"/>
+      <c r="D87" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="36"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="35">
+        <v>40546</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="36"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C89" s="35">
+        <v>40546</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="36"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="35">
         <v>40547</v>
       </c>
-      <c r="D88" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" s="1"/>
+      <c r="D90" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="36"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" s="2">
+        <v>40911</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="2">
+        <v>40911</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="2">
+        <v>40911</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="2">
+        <v>40911</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="2">
+        <v>40911</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="2">
+        <v>40911</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="2">
+        <v>40911</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="2">
+        <v>40912</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="2">
+        <v>40912</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="2">
+        <v>40912</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="2">
+        <v>40912</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="2">
+        <v>40913</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="2">
+        <v>40914</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="2">
+        <v>40914</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="201">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,10 +847,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Step：Surge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Step：Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,10 +927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Authoring Tool特殊功能表選單</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,7 +935,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>無法中文化</t>
+    <t>上傳區容量修改為50MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允許上傳JNLP檔案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟專案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增專案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複製專案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳檔案對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯資訊對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Previous Work頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增活動對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增步驟對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步驟類型描述頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authoring Tool編輯主頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁面圖片影像處理、修改並更換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步驟中文名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -951,51 +1011,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上傳區容量修改為50MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允許上傳JNLP檔案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開啟專案對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增專案對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>複製專案對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上傳檔案對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編輯資訊對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show Previous Work頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增活動對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增步驟對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步驟類型描述頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>標籤設定頁面</t>
+    <t>專案標題不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格步驟數據傳輸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生和組員登入對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step有時不能複製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能複製step：位置-時間圖、系統圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師評分頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯環境"移動"、"複製"、"鏡像"、"刪除"提示訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生登入主頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生更改密碼對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標籤設定頁面(Tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊功能所有功能頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯提示頁面(Hint)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1003,11 +1063,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Authoring Tool編輯主頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊功能所有功能頁面</t>
+    <t>學生新增一個專題對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生已歸檔專題說明頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生標記頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生我的作業頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1015,15 +1083,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站圖片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首頁圖片影像處理、修改並更換</t>
+    <t>無法傳輸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師專題執行對話框與說明頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編碼問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師評分功能造成系統問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Work文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1194,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1160,7 +1236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,13 +1340,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2470,104 +2543,104 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="C56" s="17">
         <v>40893</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="C57" s="17">
         <v>40893</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C58" s="17">
         <v>40893</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="C59" s="17">
         <v>40896</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="17">
         <v>40896</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="17">
         <v>40896</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C62" s="17">
         <v>40897</v>
@@ -2582,7 +2655,7 @@
         <v>121</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="17">
         <v>40897</v>
@@ -2597,7 +2670,7 @@
         <v>121</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="17">
         <v>40897</v>
@@ -2612,7 +2685,7 @@
         <v>121</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="17">
         <v>40898</v>
@@ -2627,7 +2700,7 @@
         <v>121</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" s="17">
         <v>40898</v>
@@ -2717,7 +2790,7 @@
         <v>121</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" s="17">
         <v>40903</v>
@@ -2728,287 +2801,287 @@
       <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="35">
+      <c r="A73" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="17">
         <v>40904</v>
       </c>
-      <c r="D73" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="36"/>
+      <c r="D73" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="36" t="s">
+      <c r="A74" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="17">
         <v>40904</v>
       </c>
-      <c r="D74" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E74" s="34"/>
+      <c r="D74" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="36" t="s">
+      <c r="A75" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="17">
         <v>40904</v>
       </c>
-      <c r="D75" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="34"/>
+      <c r="D75" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="36" t="s">
+      <c r="A76" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="17">
         <v>40904</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E76" s="36"/>
+      <c r="D76" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="36" t="s">
+      <c r="A77" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="17">
         <v>40905</v>
       </c>
-      <c r="D77" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E77" s="36"/>
+      <c r="D77" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="36" t="s">
+      <c r="A78" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="17">
         <v>40905</v>
       </c>
-      <c r="D78" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="34"/>
+      <c r="D78" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="36" t="s">
+      <c r="A79" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="17">
         <v>40906</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="36"/>
+      <c r="D79" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="36" t="s">
+      <c r="A80" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="17">
         <v>40906</v>
       </c>
-      <c r="D80" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="36"/>
+      <c r="D80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="35">
+      <c r="A81" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="17">
         <v>40906</v>
       </c>
-      <c r="D81" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="36"/>
+      <c r="D81" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="35">
+      <c r="A82" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="17">
         <v>40906</v>
       </c>
-      <c r="D82" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="36"/>
+      <c r="D82" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="36" t="s">
+      <c r="A83" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="17">
         <v>40907</v>
       </c>
-      <c r="D83" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="36"/>
+      <c r="D83" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="15"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="36" t="s">
+      <c r="A84" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="17">
         <v>40907</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="36"/>
+      <c r="D84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="36" t="s">
+      <c r="A85" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="35">
+      <c r="C85" s="17">
         <v>40545</v>
       </c>
-      <c r="D85" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="36"/>
+      <c r="D85" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="36" t="s">
+      <c r="A86" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="35">
-        <v>40545</v>
-      </c>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36" t="s">
-        <v>161</v>
-      </c>
+      <c r="C86" s="17">
+        <v>40546</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B87" s="36" t="s">
+      <c r="A87" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="35">
+      <c r="C87" s="17">
         <v>40546</v>
       </c>
-      <c r="D87" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="36"/>
+      <c r="D87" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" s="36" t="s">
+      <c r="A88" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="35">
+      <c r="C88" s="17">
         <v>40546</v>
       </c>
-      <c r="D88" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="36"/>
+      <c r="D88" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="36" t="s">
+      <c r="A89" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="35">
-        <v>40546</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="36"/>
+      <c r="C89" s="17">
+        <v>40547</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C90" s="35">
-        <v>40547</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="36"/>
+        <v>40911</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="2">
+        <v>162</v>
+      </c>
+      <c r="C91" s="35">
         <v>40911</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E91" s="1"/>
     </row>
@@ -3017,13 +3090,13 @@
         <v>76</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="2">
+        <v>163</v>
+      </c>
+      <c r="C92" s="35">
         <v>40911</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -3032,13 +3105,13 @@
         <v>76</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" s="2">
+        <v>164</v>
+      </c>
+      <c r="C93" s="35">
         <v>40911</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E93" s="1"/>
     </row>
@@ -3047,13 +3120,13 @@
         <v>76</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="2">
+        <v>165</v>
+      </c>
+      <c r="C94" s="35">
         <v>40911</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -3062,13 +3135,13 @@
         <v>76</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="2">
+        <v>167</v>
+      </c>
+      <c r="C95" s="35">
         <v>40911</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -3077,13 +3150,13 @@
         <v>76</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="2">
+        <v>168</v>
+      </c>
+      <c r="C96" s="35">
         <v>40911</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -3092,13 +3165,13 @@
         <v>76</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="2">
+        <v>170</v>
+      </c>
+      <c r="C97" s="35">
         <v>40911</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1"/>
     </row>
@@ -3107,13 +3180,13 @@
         <v>76</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="2">
+        <v>176</v>
+      </c>
+      <c r="C98" s="35">
         <v>40912</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E98" s="1"/>
     </row>
@@ -3122,13 +3195,13 @@
         <v>76</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" s="2">
+        <v>169</v>
+      </c>
+      <c r="C99" s="35">
         <v>40912</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E99" s="1"/>
     </row>
@@ -3137,13 +3210,13 @@
         <v>76</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="2">
+        <v>166</v>
+      </c>
+      <c r="C100" s="35">
         <v>40912</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E100" s="1"/>
     </row>
@@ -3152,13 +3225,13 @@
         <v>76</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="2">
+        <v>187</v>
+      </c>
+      <c r="C101" s="35">
         <v>40912</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E101" s="1"/>
     </row>
@@ -3167,13 +3240,13 @@
         <v>76</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C102" s="2">
+        <v>188</v>
+      </c>
+      <c r="C102" s="35">
         <v>40913</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -3182,30 +3255,267 @@
         <v>76</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C103" s="2">
-        <v>40914</v>
+        <v>189</v>
+      </c>
+      <c r="C103" s="35">
+        <v>40913</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="35">
+        <v>40914</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="35">
+        <v>40914</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="35">
+        <v>40917</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="35">
+        <v>40917</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="35">
+        <v>40917</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="35">
+        <v>40917</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" s="35">
+        <v>40918</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="35">
+        <v>40918</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="C112" s="23">
+        <v>40918</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="23">
+        <v>40918</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" s="2">
+        <v>40918</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" s="2">
+        <v>40920</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="2">
-        <v>40914</v>
-      </c>
-      <c r="D104" s="14" t="s">
+      <c r="C116" s="2">
+        <v>40920</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="2">
+        <v>40921</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="C118" s="2">
+        <v>40921</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="2">
+        <v>40921</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="206">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -983,51 +983,339 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>網站圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁面圖片影像處理、修改並更換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步驟中文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生和組員登入對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step有時不能複製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯環境"移動"、"複製"、"鏡像"、"刪除"提示訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生登入主頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生更改密碼對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標籤設定頁面(Tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊功能所有功能頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯提示頁面(Hint)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校技術人員頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生新增一個專題對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生已歸檔專題說明頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生標記頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生我的作業頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師專題執行對話框與說明頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編碼問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師評分功能造成系統問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Work文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改網頁與step中文化建議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連線逾時說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step移動前必須完整填答說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案名稱為中文造成執行後瀏覽WISE專題無法進入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VESL網頁內容更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Receive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網站圖片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頁面圖片影像處理、修改並更換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel按鈕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close按鈕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步驟中文名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案標題不能修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格步驟數據傳輸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生和組員登入對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step有時不能複製</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能複製step：位置-時間圖、系統圖</t>
+    <r>
+      <t>作答按鈕區顯示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>這是您的第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次填答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由序數改
+為基數顯示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次填答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次填答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1035,71 +1323,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>編輯環境"移動"、"複製"、"鏡像"、"刪除"提示訊息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生登入主頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生更改密碼對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>標籤設定頁面(Tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊功能所有功能頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編輯提示頁面(Hint)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學校技術人員頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生新增一個專題對話框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生已歸檔專題說明頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生標記頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生我的作業頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Processing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無法傳輸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教師專題執行對話框與說明頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編碼問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教師評分功能造成系統問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Work文字</t>
+    <t>測試全部step，位置-時間圖、系統圖無法複製(較少使用的step)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案標題中文修改問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>My System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>編輯介面的預覽物件名稱重複</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1194,9 +1438,38 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1236,7 +1509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,11 +1613,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1651,7 +1942,7 @@
     <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -3056,466 +3347,556 @@
       <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" s="14" t="s">
+      <c r="A90" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="35">
+      <c r="C90" s="17">
         <v>40911</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="14" t="s">
+      <c r="A91" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="35">
+      <c r="C91" s="17">
         <v>40911</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B92" s="14" t="s">
+      <c r="A92" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="35">
+      <c r="C92" s="17">
         <v>40911</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" s="14" t="s">
+      <c r="A93" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="17">
         <v>40911</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="14" t="s">
+      <c r="A94" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="35">
+      <c r="C94" s="17">
         <v>40911</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="14" t="s">
+      <c r="A95" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="35">
+      <c r="C95" s="17">
         <v>40911</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B96" s="14" t="s">
+      <c r="A96" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C96" s="17">
         <v>40911</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="14" t="s">
+      <c r="A97" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="35">
+      <c r="C97" s="17">
         <v>40911</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" s="14" t="s">
+      <c r="A98" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="17">
+        <v>40912</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="17">
+        <v>40912</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" s="17">
+        <v>40912</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="17">
+        <v>40912</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="17">
+        <v>40913</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="17">
+        <v>40913</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="17">
+        <v>40914</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="17">
+        <v>40914</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" s="17">
+        <v>40917</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="17">
+        <v>40917</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" s="17">
+        <v>40917</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="17">
+        <v>40917</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" s="17">
+        <v>40918</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="17">
+        <v>40918</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C98" s="35">
-        <v>40912</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="35">
-        <v>40912</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C100" s="35">
-        <v>40912</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="35">
-        <v>40912</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="35">
-        <v>40913</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103" s="14" t="s">
+      <c r="C112" s="35">
+        <v>40918</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="36"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" s="35">
+        <v>40918</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="35">
+        <v>40920</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="36"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" s="35">
+        <v>40920</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="36"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" s="35">
+        <v>40920</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" s="35">
+        <v>40921</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="36"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="35">
+        <v>40921</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" s="37">
+        <v>40921</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="35">
+        <v>40924</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="35">
-        <v>40913</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" s="14" t="s">
+      <c r="C121" s="35">
+        <v>40924</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="36"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="38">
+        <v>40925</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C104" s="35">
-        <v>40914</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="35">
-        <v>40914</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="35">
-        <v>40917</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C107" s="35">
-        <v>40917</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="35">
-        <v>40917</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" s="35">
-        <v>40917</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C110" s="35">
-        <v>40918</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="1" t="s">
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="38">
+        <v>40927</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E123" s="39"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124" s="38">
+        <v>40928</v>
+      </c>
+      <c r="D124" s="39" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" s="35">
-        <v>40918</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C112" s="23">
-        <v>40918</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C113" s="23">
-        <v>40918</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" s="2">
-        <v>40918</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C115" s="2">
-        <v>40920</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C116" s="2">
-        <v>40920</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" s="2">
-        <v>40921</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C118" s="2">
-        <v>40921</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C119" s="2">
-        <v>40921</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E119" s="1"/>
+      <c r="E124" s="39"/>
+    </row>
+    <row r="125" spans="1:5" ht="33">
+      <c r="A125" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="38">
+        <v>40928</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="215">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -983,10 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網站圖片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>頁面圖片影像處理、修改並更換</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1059,10 +1055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>編碼問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教師評分功能造成系統問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1071,10 +1063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改網頁與step中文化建議</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>框架文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1087,10 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>專案名稱為中文造成執行後瀏覽WISE專題無法進入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VESL網頁內容更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1099,7 +1083,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Receive</t>
+    <t>教師評分頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試全部step，位置-時間圖、系統圖無法複製(較少使用的step)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者step編輯環境中文化建議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程資訊寫入資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Previous Work顯示標題仍為英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideaBasket來源欄位仍為英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案標題中文修改資料庫無法同步修改問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文專案Run後無法瀏覽WISE專題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設要有name和image，如果沒有image要在該欄填上任何字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理學生頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step: Draw說明提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文寫入資料庫亂碼 --&gt; 編碼問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專題執行設定頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行專題/編輯內容警告對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>與其他教師共用頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究工具/匯出學生資料頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究工具/匯出功能說明頁面(6 Pages)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>My System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>編輯介面的預覽物件名稱重複</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1109,7 +1173,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1118,7 +1182,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1129,7 +1193,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1138,7 +1202,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1149,7 +1213,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1158,7 +1222,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1169,7 +1233,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1178,7 +1242,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1190,7 +1254,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1199,7 +1263,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1210,7 +1274,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1219,7 +1283,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1230,7 +1294,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1239,7 +1303,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1250,7 +1314,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1259,7 +1323,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1270,7 +1334,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1279,7 +1343,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1290,7 +1354,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1299,7 +1363,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1310,39 +1374,11 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t>”)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教師評分頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試全部step，位置-時間圖、系統圖無法複製(較少使用的step)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案標題中文修改問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>My System</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>編輯介面的預覽物件名稱重複</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1354,7 +1390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1383,14 +1419,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1444,7 +1472,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1452,21 +1488,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00B0F0"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -1553,89 +1581,89 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1931,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2170,694 +2198,694 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>40865</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>40865</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>40865</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>40865</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="49.5">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>40868</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="66">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>40868</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>40868</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="49.5">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>40868</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="49.5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>40868</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="66">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>40868</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>40868</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="66">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>40868</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>40869</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="22"/>
+      <c r="D27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" ht="18">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>40870</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="22"/>
+      <c r="D28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="18">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>40870</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="D29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>40871</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="22"/>
+      <c r="D30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>40871</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="22"/>
+      <c r="D31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" ht="18">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>40871</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="22"/>
+      <c r="D32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>40872</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="22"/>
+      <c r="D33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5" ht="18">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>40872</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="22"/>
+      <c r="D34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>40875</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="27" t="s">
+      <c r="D35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>40877</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="27" t="s">
+      <c r="D36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>40878</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="28" t="s">
+      <c r="D37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="82.5">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="22"/>
+      <c r="D38" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>40878</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="D39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="33">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>40878</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="66">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>40879</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="30" t="s">
+      <c r="D41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>40882</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" s="31" customFormat="1">
-      <c r="A43" s="16" t="s">
+      <c r="D42" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" s="30" customFormat="1">
+      <c r="A43" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>40883</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
-      <c r="A44" s="16" t="s">
+      <c r="D43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" s="30" customFormat="1">
+      <c r="A44" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>40883</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" s="31" customFormat="1">
-      <c r="A45" s="16" t="s">
+      <c r="D44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" s="30" customFormat="1">
+      <c r="A45" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>40883</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="31" customFormat="1">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:5" s="30" customFormat="1">
+      <c r="A46" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>40883</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" s="31" customFormat="1">
-      <c r="A47" s="16" t="s">
+      <c r="D46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" s="30" customFormat="1">
+      <c r="A47" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <v>40884</v>
       </c>
-      <c r="D47" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="33"/>
-    </row>
-    <row r="48" spans="1:5" s="31" customFormat="1">
-      <c r="A48" s="16" t="s">
+      <c r="D47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" s="30" customFormat="1">
+      <c r="A48" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>40884</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" s="31" customFormat="1">
-      <c r="A49" s="16" t="s">
+      <c r="D48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" s="30" customFormat="1">
+      <c r="A49" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>40885</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="15" t="s">
+      <c r="D49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="31" customFormat="1">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:5" s="30" customFormat="1">
+      <c r="A50" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>40885</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="15" t="s">
+      <c r="D50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="31" customFormat="1">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:5" s="30" customFormat="1">
+      <c r="A51" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <v>40885</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="D51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="31" customFormat="1">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:5" s="30" customFormat="1">
+      <c r="A52" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>40886</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="D52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="31" customFormat="1">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:5" s="30" customFormat="1">
+      <c r="A53" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>40886</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" s="31" customFormat="1">
-      <c r="A54" s="16" t="s">
+      <c r="D53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" s="30" customFormat="1">
+      <c r="A54" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <v>40886</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="15" t="s">
+      <c r="D54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="31" customFormat="1">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:5" s="30" customFormat="1">
+      <c r="A55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <v>40889</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="D55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>40893</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>40893</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -2865,16 +2893,16 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>40893</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -2882,1021 +2910,1175 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>40896</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <v>40896</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <v>40896</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>40897</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>40897</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="15"/>
+      <c r="D63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>40897</v>
       </c>
-      <c r="D64" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="15"/>
+      <c r="D64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <v>40898</v>
       </c>
-      <c r="D65" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="15"/>
+      <c r="D65" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>40898</v>
       </c>
-      <c r="D66" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="15"/>
+      <c r="D66" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <v>40899</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="15"/>
+      <c r="D67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>40899</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="15"/>
+      <c r="D68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>40900</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="15"/>
+      <c r="D69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <v>40900</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="15"/>
+      <c r="D70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>40903</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="15"/>
+      <c r="D71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="16">
         <v>40903</v>
       </c>
-      <c r="D72" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="15"/>
+      <c r="D72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="16">
         <v>40904</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="15"/>
+      <c r="D73" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="16">
         <v>40904</v>
       </c>
-      <c r="D74" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="15"/>
+      <c r="D74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="16">
         <v>40904</v>
       </c>
-      <c r="D75" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="15"/>
+      <c r="D75" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="16">
         <v>40904</v>
       </c>
-      <c r="D76" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="15"/>
+      <c r="D76" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="16">
         <v>40905</v>
       </c>
-      <c r="D77" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="15"/>
+      <c r="D77" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="16">
         <v>40905</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="15"/>
+      <c r="D78" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="16">
         <v>40906</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="15"/>
+      <c r="D79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="16">
         <v>40906</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="15"/>
+      <c r="D80" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="16">
         <v>40906</v>
       </c>
-      <c r="D81" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="15"/>
+      <c r="D81" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="16">
         <v>40906</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="15"/>
+      <c r="D82" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="16">
         <v>40907</v>
       </c>
-      <c r="D83" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="15"/>
+      <c r="D83" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="16">
         <v>40907</v>
       </c>
-      <c r="D84" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="15"/>
+      <c r="D84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="16">
         <v>40545</v>
       </c>
-      <c r="D85" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="15"/>
+      <c r="D85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="16">
         <v>40546</v>
       </c>
-      <c r="D86" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="15"/>
+      <c r="D86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="16">
         <v>40546</v>
       </c>
-      <c r="D87" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="15"/>
+      <c r="D87" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="16">
         <v>40546</v>
       </c>
-      <c r="D88" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="15"/>
+      <c r="D88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="16">
         <v>40547</v>
       </c>
-      <c r="D89" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="15"/>
+      <c r="D89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="16">
         <v>40911</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <v>40911</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="16">
         <v>40911</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="16">
         <v>40911</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="16">
         <v>40911</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="16">
         <v>40911</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="16">
         <v>40911</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C97" s="16">
         <v>40911</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="16">
+        <v>40912</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="16">
+        <v>40912</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" s="16">
+        <v>40912</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="16">
+        <v>40912</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="16">
+        <v>40913</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="16">
+        <v>40913</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="16">
+        <v>40914</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="16">
+        <v>40914</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="16">
+        <v>40917</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="16">
+        <v>40917</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="16">
+        <v>40917</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="16">
+        <v>40917</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="16">
+        <v>40918</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="16">
+        <v>40918</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="17">
-        <v>40912</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="17">
-        <v>40912</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C100" s="17">
-        <v>40912</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" s="17">
-        <v>40912</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C102" s="17">
-        <v>40913</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C103" s="17">
-        <v>40913</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104" s="17">
-        <v>40914</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="17">
-        <v>40914</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="17">
-        <v>40917</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C107" s="17">
-        <v>40917</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="17">
-        <v>40917</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" s="17">
-        <v>40917</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110" s="16" t="s">
+      <c r="C112" s="16">
+        <v>40918</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="14"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="16">
+        <v>40918</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="16">
+        <v>40920</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="14"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" s="16">
+        <v>40920</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="14"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" s="16">
+        <v>40920</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="16">
+        <v>40921</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118" s="16">
+        <v>40921</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="16">
+        <v>40921</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" s="16">
+        <v>40924</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="17">
-        <v>40918</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="17">
-        <v>40918</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="35">
-        <v>40918</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="36"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" s="34" t="s">
+      <c r="C121" s="16">
+        <v>40924</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="14"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="36">
+        <v>40925</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="37"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="36">
+        <v>40925</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="37"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C113" s="35">
-        <v>40918</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B114" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C114" s="35">
-        <v>40920</v>
-      </c>
-      <c r="D114" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="36"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B115" s="36" t="s">
+      <c r="C124" s="40">
+        <v>40925</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="36">
+        <v>40927</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="37"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="36">
+        <v>40928</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="33">
+      <c r="A127" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="36">
+        <v>40928</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="37"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="36">
+        <v>40928</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="37"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="36">
+        <v>40928</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="37"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C115" s="35">
-        <v>40920</v>
-      </c>
-      <c r="D115" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="36"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C116" s="35">
-        <v>40920</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B117" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C117" s="35">
-        <v>40921</v>
-      </c>
-      <c r="D117" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" s="36"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B118" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C118" s="35">
-        <v>40921</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="6"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C119" s="37">
-        <v>40921</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B120" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C120" s="35">
-        <v>40924</v>
-      </c>
-      <c r="D120" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="6"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B121" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C121" s="35">
-        <v>40924</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="36"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C122" s="38">
-        <v>40925</v>
-      </c>
-      <c r="D122" s="39" t="s">
+      <c r="C130" s="40">
+        <v>40928</v>
+      </c>
+      <c r="D130" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E122" s="39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B123" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C123" s="38">
-        <v>40927</v>
-      </c>
-      <c r="D123" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E123" s="39"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" s="40" t="s">
+      <c r="E130" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C124" s="38">
-        <v>40928</v>
-      </c>
-      <c r="D124" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="E124" s="39"/>
-    </row>
-    <row r="125" spans="1:5" ht="33">
-      <c r="A125" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C125" s="38">
-        <v>40928</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="E125" s="39"/>
+      <c r="C131" s="36">
+        <v>40938</v>
+      </c>
+      <c r="D131" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="37"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="36">
+        <v>40938</v>
+      </c>
+      <c r="D132" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="37"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" s="36">
+        <v>40938</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="37"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="36">
+        <v>40938</v>
+      </c>
+      <c r="D134" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="37"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="36">
+        <v>40938</v>
+      </c>
+      <c r="D135" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="226">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1087,18 +1087,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>測試全部step，位置-時間圖、系統圖無法複製(較少使用的step)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用者step編輯環境中文化建議</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>課程資訊寫入資料庫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Show Previous Work顯示標題仍為英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,10 +1099,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>專案標題中文修改資料庫無法同步修改問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文專案Run後無法瀏覽WISE專題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,7 +1145,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -1173,7 +1160,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1182,7 +1168,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1193,7 +1178,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1202,7 +1186,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1213,7 +1196,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1222,7 +1204,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1233,7 +1214,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1242,7 +1222,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1254,7 +1233,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1263,7 +1241,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1274,7 +1251,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1283,7 +1259,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1294,7 +1269,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1303,7 +1277,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1314,7 +1287,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1323,7 +1295,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1334,7 +1305,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1343,7 +1313,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1354,7 +1323,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1363,7 +1331,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
@@ -1374,12 +1341,67 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t>”)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正反思筆記關不掉問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新專題分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立中文帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發佈新專題-溫度與熱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動備份機制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文課程資訊無法儲存問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文標題無法修改問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試全部step，位置-時間圖、系統圖、手繪圖無法複製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發佈新專題-細胞分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程動畫開發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輻射防災課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮力課程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,14 +1486,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -1488,16 +1502,24 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="細明體"/>
-      <family val="3"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1537,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,31 +1660,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1959,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3786,7 +3802,7 @@
         <v>14</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3809,7 +3825,7 @@
         <v>76</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" s="16">
         <v>40921</v>
@@ -3865,220 +3881,334 @@
       <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C122" s="16">
+        <v>40925</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="33"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" s="16">
+        <v>40925</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="33"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="22">
+        <v>40927</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="21"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="22">
+        <v>40928</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="36">
-        <v>40925</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="37"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="34" t="s">
+    </row>
+    <row r="126" spans="1:5" ht="33">
+      <c r="A126" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="22">
+        <v>40928</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="21"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="36">
-        <v>40925</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="37"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="33" t="s">
+      <c r="B127" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="22">
+        <v>40928</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="21"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C128" s="22">
+        <v>40928</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="21"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="16">
+        <v>40938</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="14"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="16">
+        <v>40938</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="14"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="16">
+        <v>40938</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="14"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" s="16">
+        <v>40938</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="14"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="16">
+        <v>40938</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="14"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B124" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C124" s="40">
-        <v>40925</v>
-      </c>
-      <c r="D124" s="41" t="s">
+      <c r="B134" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="38">
+        <v>40939</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="35"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="38">
+        <v>40940</v>
+      </c>
+      <c r="D135" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="38">
+        <v>40942</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" s="38">
+        <v>40945</v>
+      </c>
+      <c r="D137" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B138" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="39">
+        <v>40946</v>
+      </c>
+      <c r="D138" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" s="39">
+        <v>40947</v>
+      </c>
+      <c r="D139" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C140" s="38"/>
+      <c r="D140" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E124" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C125" s="36">
-        <v>40927</v>
-      </c>
-      <c r="D125" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="37"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" s="36">
-        <v>40928</v>
-      </c>
-      <c r="D126" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="33">
-      <c r="A127" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B127" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="C127" s="36">
-        <v>40928</v>
-      </c>
-      <c r="D127" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="37"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C128" s="36">
-        <v>40928</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="37"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" s="36">
-        <v>40928</v>
-      </c>
-      <c r="D129" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="37"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" s="40">
-        <v>40928</v>
-      </c>
-      <c r="D130" s="41" t="s">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" s="39">
+        <v>40952</v>
+      </c>
+      <c r="D141" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E130" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" s="36">
-        <v>40938</v>
-      </c>
-      <c r="D131" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="37"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C132" s="36">
-        <v>40938</v>
-      </c>
-      <c r="D132" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="37"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B133" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C133" s="36">
-        <v>40938</v>
-      </c>
-      <c r="D133" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="37"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B134" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C134" s="36">
-        <v>40938</v>
-      </c>
-      <c r="D134" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="37"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B135" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C135" s="36">
-        <v>40938</v>
-      </c>
-      <c r="D135" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="37"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E143" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WISE_Schedule.xlsx
+++ b/WISE_Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="16608" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="228">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,18 +1357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建立中文帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發佈新專題-溫度與熱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網站功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自動備份機制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1385,10 +1377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網站功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發佈新專題-細胞分裂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,6 +1390,26 @@
   </si>
   <si>
     <t>浮力課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發佈新專題-氫燃料車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程分類修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程分類中文判斷與顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生註冊中文帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師註冊中文帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1412,7 +1420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1488,14 +1496,6 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1559,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,25 +1660,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1975,18 +1972,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -2068,7 +2066,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="49.5">
+    <row r="6" spans="1:5" ht="48.6">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2134,7 +2132,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="66">
+    <row r="10" spans="1:5" ht="64.8">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2168,7 +2166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="82.5">
+    <row r="12" spans="1:5" ht="81">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="49.5">
+    <row r="19" spans="1:5" ht="48.6">
       <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="66">
+    <row r="20" spans="1:5" ht="64.8">
       <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
@@ -2313,7 +2311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="49.5">
+    <row r="21" spans="1:5" ht="48.6">
       <c r="A21" s="15" t="s">
         <v>34</v>
       </c>
@@ -2330,7 +2328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="49.5">
+    <row r="22" spans="1:5" ht="48.6">
       <c r="A22" s="15" t="s">
         <v>34</v>
       </c>
@@ -2347,7 +2345,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="49.5">
+    <row r="23" spans="1:5" ht="48.6">
       <c r="A23" s="15" t="s">
         <v>34</v>
       </c>
@@ -2364,7 +2362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="66">
+    <row r="24" spans="1:5" ht="64.8">
       <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
@@ -2381,7 +2379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="33">
+    <row r="25" spans="1:5" ht="32.4">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="66">
+    <row r="26" spans="1:5" ht="64.8">
       <c r="A26" s="15" t="s">
         <v>34</v>
       </c>
@@ -2415,7 +2413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18">
+    <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
         <v>4</v>
       </c>
@@ -2430,7 +2428,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:5" ht="18">
+    <row r="28" spans="1:5">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -2445,7 +2443,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:5" ht="18">
+    <row r="29" spans="1:5">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
@@ -2490,7 +2488,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5" ht="18">
+    <row r="32" spans="1:5">
       <c r="A32" s="15" t="s">
         <v>34</v>
       </c>
@@ -2505,7 +2503,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:5" ht="18">
+    <row r="33" spans="1:5">
       <c r="A33" s="15" t="s">
         <v>73</v>
       </c>
@@ -2520,7 +2518,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:5" ht="18">
+    <row r="34" spans="1:5">
       <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="82.5">
+    <row r="38" spans="1:5" ht="81">
       <c r="A38" s="15" t="s">
         <v>91</v>
       </c>
@@ -2601,7 +2599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33">
+    <row r="39" spans="1:5" ht="32.4">
       <c r="A39" s="15" t="s">
         <v>34</v>
       </c>
@@ -2618,7 +2616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33">
+    <row r="40" spans="1:5" ht="32.4">
       <c r="A40" s="15" t="s">
         <v>34</v>
       </c>
@@ -2635,7 +2633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="66">
+    <row r="41" spans="1:5" ht="64.8">
       <c r="A41" s="15" t="s">
         <v>99</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3942,7 +3940,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="33">
+    <row r="126" spans="1:5" ht="64.2">
       <c r="A126" s="15" t="s">
         <v>82</v>
       </c>
@@ -4063,152 +4061,213 @@
       <c r="E133" s="14"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="37" t="s">
+      <c r="A134" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C134" s="38">
+      <c r="C134" s="16">
         <v>40939</v>
       </c>
-      <c r="D134" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="35"/>
+      <c r="D134" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="14"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="38">
+      <c r="C135" s="16">
         <v>40940</v>
       </c>
-      <c r="D135" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="1"/>
+      <c r="D135" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="14"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="16">
+        <v>40942</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="14"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C136" s="38">
-        <v>40942</v>
-      </c>
-      <c r="D136" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="37" t="s">
+      <c r="C137" s="16">
+        <v>40945</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="14"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B138" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="C138" s="16">
+        <v>40946</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C137" s="38">
-        <v>40945</v>
-      </c>
-      <c r="D137" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="37" t="s">
+      <c r="C139" s="16">
+        <v>40947</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B138" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C138" s="39">
-        <v>40946</v>
-      </c>
-      <c r="D138" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="37" t="s">
+      <c r="B140" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" s="16">
+        <v>40952</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="14"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B139" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C139" s="39">
-        <v>40947</v>
-      </c>
-      <c r="D139" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="37" t="s">
+      <c r="B141" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C141" s="37">
+        <v>40963</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B140" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="C140" s="38"/>
-      <c r="D140" s="36" t="s">
+      <c r="B142" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C142" s="37">
+        <v>40968</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C143" s="38">
+        <v>40970</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C144" s="38">
+        <v>40970</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C145" s="38">
+        <v>40971</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B141" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C141" s="39">
-        <v>40952</v>
-      </c>
-      <c r="D141" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B142" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="36" t="s">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E143" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4223,7 +4282,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4237,7 +4296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
